--- a/4.Analysis/Data/raw/day1/phase_002/subj_day1_phase_002.xlsx
+++ b/4.Analysis/Data/raw/day1/phase_002/subj_day1_phase_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t xml:space="preserve">USERID</t>
   </si>
@@ -137,6 +137,9 @@
     <t xml:space="preserve">考察某个人的反应能力以及自己对自己的看法	</t>
   </si>
   <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
@@ -432,6 +435,9 @@
   </si>
   <si>
     <t xml:space="preserve">测试专注力，自我感知	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">phase_002_subj_2</t>
@@ -914,13 +920,13 @@
         <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z2" t="n">
         <v>181</v>
@@ -928,19 +934,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -949,7 +955,7 @@
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
@@ -985,22 +991,22 @@
         <v>36</v>
       </c>
       <c r="T3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V3" t="s">
         <v>41</v>
       </c>
       <c r="W3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z3" t="n">
         <v>145</v>
@@ -1008,19 +1014,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -1029,7 +1035,7 @@
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
         <v>34</v>
@@ -1065,22 +1071,22 @@
         <v>36</v>
       </c>
       <c r="T4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V4" t="s">
         <v>41</v>
       </c>
       <c r="W4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z4" t="n">
         <v>613</v>
@@ -1088,19 +1094,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
         <v>31</v>
@@ -1109,7 +1115,7 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
         <v>34</v>
@@ -1145,22 +1151,22 @@
         <v>36</v>
       </c>
       <c r="T5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V5" t="s">
         <v>41</v>
       </c>
       <c r="W5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z5" t="n">
         <v>683</v>
@@ -1168,19 +1174,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
         <v>31</v>
@@ -1189,7 +1195,7 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s">
         <v>34</v>
@@ -1225,22 +1231,22 @@
         <v>36</v>
       </c>
       <c r="T6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V6" t="s">
         <v>41</v>
       </c>
       <c r="W6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="n">
         <v>468</v>
@@ -1248,19 +1254,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
         <v>31</v>
@@ -1269,7 +1275,7 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s">
         <v>34</v>
@@ -1305,22 +1311,22 @@
         <v>36</v>
       </c>
       <c r="T7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V7" t="s">
         <v>41</v>
       </c>
       <c r="W7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z7" t="n">
         <v>592</v>
@@ -1328,19 +1334,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
         <v>31</v>
@@ -1349,7 +1355,7 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
         <v>34</v>
@@ -1394,13 +1400,13 @@
         <v>41</v>
       </c>
       <c r="W8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z8" t="n">
         <v>378</v>
@@ -1408,19 +1414,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
         <v>31</v>
@@ -1429,7 +1435,7 @@
         <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I9" t="s">
         <v>34</v>
@@ -1465,22 +1471,22 @@
         <v>36</v>
       </c>
       <c r="T9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="U9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="V9" t="s">
         <v>41</v>
       </c>
       <c r="W9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Z9" t="n">
         <v>394</v>
@@ -1488,19 +1494,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s">
         <v>31</v>
@@ -1509,7 +1515,7 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I10" t="s">
         <v>34</v>
@@ -1545,22 +1551,22 @@
         <v>36</v>
       </c>
       <c r="T10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V10" t="s">
         <v>41</v>
       </c>
       <c r="W10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z10" t="n">
         <v>306</v>
@@ -1568,19 +1574,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
         <v>31</v>
@@ -1589,7 +1595,7 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I11" t="s">
         <v>34</v>
@@ -1607,7 +1613,7 @@
         <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
         <v>37</v>
@@ -1625,22 +1631,22 @@
         <v>36</v>
       </c>
       <c r="T11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="V11" t="s">
         <v>41</v>
       </c>
       <c r="W11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z11" t="n">
         <v>162</v>
@@ -1648,19 +1654,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F12" t="s">
         <v>31</v>
@@ -1669,7 +1675,7 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I12" t="s">
         <v>34</v>
@@ -1687,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
         <v>37</v>
@@ -1705,22 +1711,22 @@
         <v>36</v>
       </c>
       <c r="T12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="U12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="V12" t="s">
         <v>41</v>
       </c>
       <c r="W12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z12" t="n">
         <v>472</v>
@@ -1728,19 +1734,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F13" t="s">
         <v>31</v>
@@ -1749,7 +1755,7 @@
         <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I13" t="s">
         <v>34</v>
@@ -1794,13 +1800,13 @@
         <v>41</v>
       </c>
       <c r="W13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z13" t="n">
         <v>693</v>
@@ -1808,19 +1814,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F14" t="s">
         <v>31</v>
@@ -1829,7 +1835,7 @@
         <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I14" t="s">
         <v>34</v>
@@ -1865,22 +1871,22 @@
         <v>36</v>
       </c>
       <c r="T14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="V14" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="W14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Z14" t="n">
         <v>38</v>
